--- a/service/dayforecastonactivity.xlsx
+++ b/service/dayforecastonactivity.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>11/03/2023</t>
+          <t>14/03/2023</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>152.1</v>
+        <v>270.4</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>159.9</v>
+        <v>361.4</v>
       </c>
     </row>
     <row r="5">
@@ -511,7 +511,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>184.6</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>198.9</v>
+        <v>331.5</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>136.5</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8">
@@ -559,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>152.1</v>
+        <v>284.7</v>
       </c>
     </row>
     <row r="9">
@@ -575,7 +575,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>120.9</v>
+        <v>258.7</v>
       </c>
     </row>
     <row r="10">
@@ -591,7 +591,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>114.4</v>
+        <v>301.6</v>
       </c>
     </row>
     <row r="11">
@@ -607,7 +607,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>115.7</v>
+        <v>280.8</v>
       </c>
     </row>
     <row r="12">
@@ -623,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>109.2</v>
+        <v>308.1</v>
       </c>
     </row>
     <row r="13">
@@ -639,7 +639,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>65</v>
+        <v>230.1</v>
       </c>
     </row>
     <row r="14">
@@ -655,7 +655,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>36.40000000000001</v>
+        <v>150.8</v>
       </c>
     </row>
     <row r="15">
@@ -719,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -735,7 +735,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -751,7 +751,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -767,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -783,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
@@ -799,7 +799,7 @@
         <v>13</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -815,7 +815,7 @@
         <v>14</v>
       </c>
       <c r="D24" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -831,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -847,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
@@ -863,7 +863,7 @@
         <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -879,7 +879,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -895,7 +895,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -911,7 +911,7 @@
         <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36">
@@ -1007,7 +1007,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -1023,7 +1023,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>136</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38">
@@ -1039,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>118</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39">
@@ -1055,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>110</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40">
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>101</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41">
@@ -1087,7 +1087,7 @@
         <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>87</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42">
@@ -1103,7 +1103,7 @@
         <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>84</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43">
@@ -1119,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>106</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44">
@@ -1135,7 +1135,7 @@
         <v>16</v>
       </c>
       <c r="D44" t="n">
-        <v>88</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45">
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>91</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46">
@@ -1167,7 +1167,7 @@
         <v>18</v>
       </c>
       <c r="D46" t="n">
-        <v>77</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47">
@@ -1183,7 +1183,7 @@
         <v>19</v>
       </c>
       <c r="D47" t="n">
-        <v>68</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48">
@@ -1199,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -1215,7 +1215,7 @@
         <v>21</v>
       </c>
       <c r="D49" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
@@ -1231,7 +1231,7 @@
         <v>22</v>
       </c>
       <c r="D50" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
@@ -1263,7 +1263,7 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
@@ -1279,7 +1279,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>80</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54">
@@ -1295,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>86</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55">
@@ -1311,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>94</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56">
@@ -1327,7 +1327,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>97</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57">
@@ -1343,7 +1343,7 @@
         <v>13</v>
       </c>
       <c r="D57" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
@@ -1359,7 +1359,7 @@
         <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>73</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
@@ -1375,7 +1375,7 @@
         <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>57</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60">
@@ -1391,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="D60" t="n">
-        <v>64</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
@@ -1407,7 +1407,7 @@
         <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>59</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62">
@@ -1423,7 +1423,7 @@
         <v>18</v>
       </c>
       <c r="D62" t="n">
-        <v>56</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
@@ -1439,7 +1439,7 @@
         <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>37</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64">
@@ -1519,7 +1519,7 @@
         <v>8</v>
       </c>
       <c r="D68" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69">
@@ -1535,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70">
@@ -1551,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="D70" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71">
@@ -1567,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
@@ -1583,7 +1583,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73">
@@ -1599,7 +1599,7 @@
         <v>13</v>
       </c>
       <c r="D73" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74">
@@ -1615,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="D74" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75">
@@ -1631,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="D75" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76">
@@ -1647,7 +1647,7 @@
         <v>16</v>
       </c>
       <c r="D76" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77">
@@ -1663,7 +1663,7 @@
         <v>17</v>
       </c>
       <c r="D77" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78">
@@ -1679,7 +1679,7 @@
         <v>18</v>
       </c>
       <c r="D78" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79">
@@ -1695,7 +1695,7 @@
         <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -1711,7 +1711,7 @@
         <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
@@ -1727,7 +1727,7 @@
         <v>21</v>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
@@ -1743,7 +1743,7 @@
         <v>22</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -1823,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1839,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -1855,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -1871,7 +1871,7 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91">
@@ -1887,7 +1887,7 @@
         <v>7</v>
       </c>
       <c r="D91" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92">
@@ -1903,7 +1903,7 @@
         <v>8</v>
       </c>
       <c r="D92" t="n">
-        <v>63</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
@@ -1919,7 +1919,7 @@
         <v>9</v>
       </c>
       <c r="D93" t="n">
-        <v>95</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94">
@@ -1935,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="D94" t="n">
-        <v>129</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95">
@@ -1951,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="D95" t="n">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96">
@@ -1967,7 +1967,7 @@
         <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>139</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97">
@@ -1983,7 +1983,7 @@
         <v>13</v>
       </c>
       <c r="D97" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98">
@@ -1999,7 +1999,7 @@
         <v>14</v>
       </c>
       <c r="D98" t="n">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99">
@@ -2015,7 +2015,7 @@
         <v>15</v>
       </c>
       <c r="D99" t="n">
-        <v>104</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="D100" t="n">
-        <v>101</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
@@ -2047,7 +2047,7 @@
         <v>17</v>
       </c>
       <c r="D101" t="n">
-        <v>95</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102">
@@ -2063,7 +2063,7 @@
         <v>18</v>
       </c>
       <c r="D102" t="n">
-        <v>94</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103">
@@ -2079,7 +2079,7 @@
         <v>19</v>
       </c>
       <c r="D103" t="n">
-        <v>71</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104">
@@ -2095,7 +2095,7 @@
         <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>39</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105">
@@ -2111,7 +2111,7 @@
         <v>21</v>
       </c>
       <c r="D105" t="n">
-        <v>30</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106">
@@ -2127,7 +2127,7 @@
         <v>22</v>
       </c>
       <c r="D106" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -2143,7 +2143,7 @@
         <v>23</v>
       </c>
       <c r="D107" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
@@ -2175,7 +2175,7 @@
         <v>9</v>
       </c>
       <c r="D109" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
@@ -2191,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="D110" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111">
@@ -2207,7 +2207,7 @@
         <v>11</v>
       </c>
       <c r="D111" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112">
@@ -2223,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="D112" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113">
@@ -2239,7 +2239,7 @@
         <v>13</v>
       </c>
       <c r="D113" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114">
@@ -2255,7 +2255,7 @@
         <v>14</v>
       </c>
       <c r="D114" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
@@ -2271,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="D115" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116">
@@ -2287,7 +2287,7 @@
         <v>16</v>
       </c>
       <c r="D116" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
@@ -2303,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="D117" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118">
@@ -2319,7 +2319,7 @@
         <v>18</v>
       </c>
       <c r="D118" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119">
@@ -2335,7 +2335,7 @@
         <v>19</v>
       </c>
       <c r="D119" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120">
@@ -2351,7 +2351,7 @@
         <v>20</v>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121">
@@ -2431,7 +2431,7 @@
         <v>9</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -2463,7 +2463,7 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -2479,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -2495,7 +2495,7 @@
         <v>13</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -2527,7 +2527,7 @@
         <v>15</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -2575,7 +2575,7 @@
         <v>18</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -2591,7 +2591,7 @@
         <v>19</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -2671,7 +2671,7 @@
         <v>8</v>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
@@ -2687,7 +2687,7 @@
         <v>9</v>
       </c>
       <c r="D141" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142">
@@ -2703,7 +2703,7 @@
         <v>10</v>
       </c>
       <c r="D142" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143">
@@ -2719,7 +2719,7 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144">
@@ -2735,7 +2735,7 @@
         <v>12</v>
       </c>
       <c r="D144" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145">
@@ -2751,7 +2751,7 @@
         <v>13</v>
       </c>
       <c r="D145" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
@@ -2767,7 +2767,7 @@
         <v>14</v>
       </c>
       <c r="D146" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147">
@@ -2783,7 +2783,7 @@
         <v>15</v>
       </c>
       <c r="D147" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148">
@@ -2799,7 +2799,7 @@
         <v>16</v>
       </c>
       <c r="D148" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149">
@@ -2815,7 +2815,7 @@
         <v>17</v>
       </c>
       <c r="D149" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150">
@@ -2831,7 +2831,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151">
@@ -2847,7 +2847,7 @@
         <v>19</v>
       </c>
       <c r="D151" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152">
@@ -2863,7 +2863,7 @@
         <v>20</v>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153">
@@ -2879,7 +2879,7 @@
         <v>21</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
@@ -2895,7 +2895,7 @@
         <v>22</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">

--- a/service/dayforecastonactivity.xlsx
+++ b/service/dayforecastonactivity.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>18/03/2023</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>270.4</v>
+        <v>183.3</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>361.4</v>
+        <v>191.1</v>
       </c>
     </row>
     <row r="5">
@@ -511,7 +511,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>377</v>
+        <v>219.7</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>331.5</v>
+        <v>235.3</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>234</v>
+        <v>161.2</v>
       </c>
     </row>
     <row r="8">
@@ -559,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>284.7</v>
+        <v>184.6</v>
       </c>
     </row>
     <row r="9">
@@ -575,7 +575,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>258.7</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
@@ -591,7 +591,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>301.6</v>
+        <v>135.2</v>
       </c>
     </row>
     <row r="11">
@@ -607,7 +607,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>280.8</v>
+        <v>139.1</v>
       </c>
     </row>
     <row r="12">
@@ -623,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>308.1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -639,7 +639,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>230.1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -655,7 +655,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>150.8</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="15">
@@ -719,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -735,7 +735,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -751,7 +751,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -767,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -783,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -799,7 +799,7 @@
         <v>13</v>
       </c>
       <c r="D23" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -815,7 +815,7 @@
         <v>14</v>
       </c>
       <c r="D24" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -831,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -847,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="D26" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -863,7 +863,7 @@
         <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -879,7 +879,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -895,7 +895,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -911,7 +911,7 @@
         <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
@@ -1007,7 +1007,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
@@ -1023,7 +1023,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38">
@@ -1039,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>218</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -1055,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>213</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>179</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
@@ -1087,7 +1087,7 @@
         <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>148</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42">
@@ -1103,7 +1103,7 @@
         <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>166</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43">
@@ -1119,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
@@ -1135,7 +1135,7 @@
         <v>16</v>
       </c>
       <c r="D44" t="n">
-        <v>153</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45">
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>162</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46">
@@ -1167,7 +1167,7 @@
         <v>18</v>
       </c>
       <c r="D46" t="n">
-        <v>155</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47">
@@ -1183,7 +1183,7 @@
         <v>19</v>
       </c>
       <c r="D47" t="n">
-        <v>129</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
@@ -1199,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49">
@@ -1215,7 +1215,7 @@
         <v>21</v>
       </c>
       <c r="D49" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50">
@@ -1231,7 +1231,7 @@
         <v>22</v>
       </c>
       <c r="D50" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -1247,7 +1247,7 @@
         <v>23</v>
       </c>
       <c r="D51" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
@@ -1263,7 +1263,7 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
@@ -1279,7 +1279,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>135</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
@@ -1295,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>168</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55">
@@ -1311,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>158</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56">
@@ -1327,7 +1327,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>131</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57">
@@ -1343,7 +1343,7 @@
         <v>13</v>
       </c>
       <c r="D57" t="n">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58">
@@ -1359,7 +1359,7 @@
         <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>127</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59">
@@ -1375,7 +1375,7 @@
         <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>114</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60">
@@ -1391,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="D60" t="n">
-        <v>130</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61">
@@ -1407,7 +1407,7 @@
         <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>114</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62">
@@ -1423,7 +1423,7 @@
         <v>18</v>
       </c>
       <c r="D62" t="n">
-        <v>128</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63">
@@ -1439,7 +1439,7 @@
         <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>93</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64">
@@ -1519,7 +1519,7 @@
         <v>8</v>
       </c>
       <c r="D68" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -1535,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70">
@@ -1551,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="D70" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
@@ -1567,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -1583,7 +1583,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -1599,7 +1599,7 @@
         <v>13</v>
       </c>
       <c r="D73" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
@@ -1615,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="D74" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
@@ -1631,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="D75" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76">
@@ -1647,7 +1647,7 @@
         <v>16</v>
       </c>
       <c r="D76" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
@@ -1663,7 +1663,7 @@
         <v>17</v>
       </c>
       <c r="D77" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78">
@@ -1679,7 +1679,7 @@
         <v>18</v>
       </c>
       <c r="D78" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
@@ -1695,7 +1695,7 @@
         <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
@@ -1711,7 +1711,7 @@
         <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -1727,7 +1727,7 @@
         <v>21</v>
       </c>
       <c r="D81" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -1743,7 +1743,7 @@
         <v>22</v>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
@@ -1823,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -1839,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1855,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -1871,7 +1871,7 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
@@ -1887,7 +1887,7 @@
         <v>7</v>
       </c>
       <c r="D91" t="n">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92">
@@ -1903,7 +1903,7 @@
         <v>8</v>
       </c>
       <c r="D92" t="n">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93">
@@ -1919,7 +1919,7 @@
         <v>9</v>
       </c>
       <c r="D93" t="n">
-        <v>148</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94">
@@ -1935,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="D94" t="n">
-        <v>180</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95">
@@ -1951,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="D95" t="n">
-        <v>167</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96">
@@ -1967,7 +1967,7 @@
         <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
@@ -1983,7 +1983,7 @@
         <v>13</v>
       </c>
       <c r="D97" t="n">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98">
@@ -1999,7 +1999,7 @@
         <v>14</v>
       </c>
       <c r="D98" t="n">
-        <v>163</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99">
@@ -2015,7 +2015,7 @@
         <v>15</v>
       </c>
       <c r="D99" t="n">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="D100" t="n">
-        <v>146</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101">
@@ -2047,7 +2047,7 @@
         <v>17</v>
       </c>
       <c r="D101" t="n">
-        <v>152</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102">
@@ -2063,7 +2063,7 @@
         <v>18</v>
       </c>
       <c r="D102" t="n">
-        <v>172</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103">
@@ -2079,7 +2079,7 @@
         <v>19</v>
       </c>
       <c r="D103" t="n">
-        <v>145</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104">
@@ -2095,7 +2095,7 @@
         <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>103</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105">
@@ -2111,7 +2111,7 @@
         <v>21</v>
       </c>
       <c r="D105" t="n">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -2127,7 +2127,7 @@
         <v>22</v>
       </c>
       <c r="D106" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107">
@@ -2143,7 +2143,7 @@
         <v>23</v>
       </c>
       <c r="D107" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -2175,7 +2175,7 @@
         <v>9</v>
       </c>
       <c r="D109" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110">
@@ -2191,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="D110" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111">
@@ -2207,7 +2207,7 @@
         <v>11</v>
       </c>
       <c r="D111" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
@@ -2223,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="D112" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
@@ -2239,7 +2239,7 @@
         <v>13</v>
       </c>
       <c r="D113" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114">
@@ -2255,7 +2255,7 @@
         <v>14</v>
       </c>
       <c r="D114" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
@@ -2271,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="D115" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
@@ -2287,7 +2287,7 @@
         <v>16</v>
       </c>
       <c r="D116" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117">
@@ -2303,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="D117" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
@@ -2319,7 +2319,7 @@
         <v>18</v>
       </c>
       <c r="D118" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
@@ -2335,7 +2335,7 @@
         <v>19</v>
       </c>
       <c r="D119" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120">
@@ -2351,7 +2351,7 @@
         <v>20</v>
       </c>
       <c r="D120" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -2431,7 +2431,7 @@
         <v>9</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2479,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2495,7 +2495,7 @@
         <v>13</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2527,7 +2527,7 @@
         <v>15</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2575,7 +2575,7 @@
         <v>18</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2591,7 +2591,7 @@
         <v>19</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2671,7 +2671,7 @@
         <v>8</v>
       </c>
       <c r="D140" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141">
@@ -2687,7 +2687,7 @@
         <v>9</v>
       </c>
       <c r="D141" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142">
@@ -2703,7 +2703,7 @@
         <v>10</v>
       </c>
       <c r="D142" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
@@ -2719,7 +2719,7 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144">
@@ -2735,7 +2735,7 @@
         <v>12</v>
       </c>
       <c r="D144" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
@@ -2751,7 +2751,7 @@
         <v>13</v>
       </c>
       <c r="D145" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146">
@@ -2767,7 +2767,7 @@
         <v>14</v>
       </c>
       <c r="D146" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
@@ -2783,7 +2783,7 @@
         <v>15</v>
       </c>
       <c r="D147" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148">
@@ -2799,7 +2799,7 @@
         <v>16</v>
       </c>
       <c r="D148" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149">
@@ -2815,7 +2815,7 @@
         <v>17</v>
       </c>
       <c r="D149" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150">
@@ -2831,7 +2831,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151">
@@ -2847,7 +2847,7 @@
         <v>19</v>
       </c>
       <c r="D151" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152">
@@ -2863,7 +2863,7 @@
         <v>20</v>
       </c>
       <c r="D152" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -2879,7 +2879,7 @@
         <v>21</v>
       </c>
       <c r="D153" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -2895,7 +2895,7 @@
         <v>22</v>
       </c>
       <c r="D154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">

--- a/service/dayforecastonactivity.xlsx
+++ b/service/dayforecastonactivity.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>18/03/2023</t>
+          <t>21/03/2023</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>183.3</v>
+        <v>302.9</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>191.1</v>
+        <v>404.3</v>
       </c>
     </row>
     <row r="5">
@@ -511,7 +511,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>219.7</v>
+        <v>422.5</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>235.3</v>
+        <v>371.8</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>161.2</v>
+        <v>262.6</v>
       </c>
     </row>
     <row r="8">
@@ -559,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>184.6</v>
+        <v>318.5</v>
       </c>
     </row>
     <row r="9">
@@ -575,7 +575,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>143</v>
+        <v>289.9</v>
       </c>
     </row>
     <row r="10">
@@ -591,7 +591,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>135.2</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11">
@@ -607,7 +607,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>139.1</v>
+        <v>315.9</v>
       </c>
     </row>
     <row r="12">
@@ -623,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>130</v>
+        <v>343.2</v>
       </c>
     </row>
     <row r="13">
@@ -639,7 +639,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>256.1</v>
       </c>
     </row>
     <row r="14">
@@ -655,7 +655,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>42.9</v>
+        <v>166.4</v>
       </c>
     </row>
     <row r="15">
@@ -719,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -735,7 +735,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -751,7 +751,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
@@ -767,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
@@ -783,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
@@ -799,7 +799,7 @@
         <v>13</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -815,7 +815,7 @@
         <v>14</v>
       </c>
       <c r="D24" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -831,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -847,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -863,7 +863,7 @@
         <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -879,7 +879,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -895,7 +895,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -911,7 +911,7 @@
         <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35">
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36">
@@ -1007,7 +1007,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37">
@@ -1023,7 +1023,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38">
@@ -1039,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>128</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39">
@@ -1055,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>117</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40">
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>109</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41">
@@ -1087,7 +1087,7 @@
         <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>93</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42">
@@ -1103,7 +1103,7 @@
         <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>91</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43">
@@ -1119,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>118</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44">
@@ -1135,7 +1135,7 @@
         <v>16</v>
       </c>
       <c r="D44" t="n">
-        <v>97</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45">
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>99</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46">
@@ -1167,7 +1167,7 @@
         <v>18</v>
       </c>
       <c r="D46" t="n">
-        <v>85</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47">
@@ -1183,7 +1183,7 @@
         <v>19</v>
       </c>
       <c r="D47" t="n">
-        <v>76</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48">
@@ -1199,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
@@ -1215,7 +1215,7 @@
         <v>21</v>
       </c>
       <c r="D49" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50">
@@ -1231,7 +1231,7 @@
         <v>22</v>
       </c>
       <c r="D50" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
@@ -1247,7 +1247,7 @@
         <v>23</v>
       </c>
       <c r="D51" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -1263,7 +1263,7 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53">
@@ -1279,7 +1279,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
@@ -1295,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>86</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55">
@@ -1311,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>93</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56">
@@ -1327,7 +1327,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -1343,7 +1343,7 @@
         <v>13</v>
       </c>
       <c r="D57" t="n">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58">
@@ -1359,7 +1359,7 @@
         <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59">
@@ -1375,7 +1375,7 @@
         <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>57</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60">
@@ -1391,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="D60" t="n">
-        <v>64</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61">
@@ -1407,7 +1407,7 @@
         <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>59</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62">
@@ -1423,7 +1423,7 @@
         <v>18</v>
       </c>
       <c r="D62" t="n">
-        <v>55</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63">
@@ -1439,7 +1439,7 @@
         <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
@@ -1519,7 +1519,7 @@
         <v>8</v>
       </c>
       <c r="D68" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
@@ -1535,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70">
@@ -1551,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="D70" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71">
@@ -1567,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72">
@@ -1583,7 +1583,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73">
@@ -1599,7 +1599,7 @@
         <v>13</v>
       </c>
       <c r="D73" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74">
@@ -1615,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="D74" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75">
@@ -1631,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="D75" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76">
@@ -1647,7 +1647,7 @@
         <v>16</v>
       </c>
       <c r="D76" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77">
@@ -1663,7 +1663,7 @@
         <v>17</v>
       </c>
       <c r="D77" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78">
@@ -1679,7 +1679,7 @@
         <v>18</v>
       </c>
       <c r="D78" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79">
@@ -1695,7 +1695,7 @@
         <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
@@ -1711,7 +1711,7 @@
         <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
@@ -1727,7 +1727,7 @@
         <v>21</v>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82">
@@ -1743,7 +1743,7 @@
         <v>22</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -1823,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1839,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -1871,7 +1871,7 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
@@ -1887,7 +1887,7 @@
         <v>7</v>
       </c>
       <c r="D91" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92">
@@ -1903,7 +1903,7 @@
         <v>8</v>
       </c>
       <c r="D92" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
@@ -1919,7 +1919,7 @@
         <v>9</v>
       </c>
       <c r="D93" t="n">
-        <v>102</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
@@ -1935,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="D94" t="n">
-        <v>136</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95">
@@ -1951,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="D95" t="n">
-        <v>143</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96">
@@ -1967,7 +1967,7 @@
         <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>147</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97">
@@ -1983,7 +1983,7 @@
         <v>13</v>
       </c>
       <c r="D97" t="n">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98">
@@ -1999,7 +1999,7 @@
         <v>14</v>
       </c>
       <c r="D98" t="n">
-        <v>124</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99">
@@ -2015,7 +2015,7 @@
         <v>15</v>
       </c>
       <c r="D99" t="n">
-        <v>110</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="D100" t="n">
-        <v>107</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101">
@@ -2047,7 +2047,7 @@
         <v>17</v>
       </c>
       <c r="D101" t="n">
-        <v>101</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
@@ -2063,7 +2063,7 @@
         <v>18</v>
       </c>
       <c r="D102" t="n">
-        <v>100</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103">
@@ -2079,7 +2079,7 @@
         <v>19</v>
       </c>
       <c r="D103" t="n">
-        <v>76</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
@@ -2095,7 +2095,7 @@
         <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>42</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105">
@@ -2111,7 +2111,7 @@
         <v>21</v>
       </c>
       <c r="D105" t="n">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106">
@@ -2127,7 +2127,7 @@
         <v>22</v>
       </c>
       <c r="D106" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
@@ -2143,7 +2143,7 @@
         <v>23</v>
       </c>
       <c r="D107" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
@@ -2175,7 +2175,7 @@
         <v>9</v>
       </c>
       <c r="D109" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
@@ -2191,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="D110" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
@@ -2207,7 +2207,7 @@
         <v>11</v>
       </c>
       <c r="D111" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112">
@@ -2223,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="D112" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113">
@@ -2239,7 +2239,7 @@
         <v>13</v>
       </c>
       <c r="D113" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
@@ -2255,7 +2255,7 @@
         <v>14</v>
       </c>
       <c r="D114" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115">
@@ -2271,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="D115" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
@@ -2287,7 +2287,7 @@
         <v>16</v>
       </c>
       <c r="D116" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117">
@@ -2303,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="D117" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -2319,7 +2319,7 @@
         <v>18</v>
       </c>
       <c r="D118" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119">
@@ -2335,7 +2335,7 @@
         <v>19</v>
       </c>
       <c r="D119" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120">
@@ -2351,7 +2351,7 @@
         <v>20</v>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
@@ -2431,7 +2431,7 @@
         <v>9</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -2479,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -2495,7 +2495,7 @@
         <v>13</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -2527,7 +2527,7 @@
         <v>15</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -2575,7 +2575,7 @@
         <v>18</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -2591,7 +2591,7 @@
         <v>19</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -2671,7 +2671,7 @@
         <v>8</v>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141">
@@ -2687,7 +2687,7 @@
         <v>9</v>
       </c>
       <c r="D141" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142">
@@ -2703,7 +2703,7 @@
         <v>10</v>
       </c>
       <c r="D142" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143">
@@ -2719,7 +2719,7 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144">
@@ -2735,7 +2735,7 @@
         <v>12</v>
       </c>
       <c r="D144" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145">
@@ -2751,7 +2751,7 @@
         <v>13</v>
       </c>
       <c r="D145" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146">
@@ -2767,7 +2767,7 @@
         <v>14</v>
       </c>
       <c r="D146" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147">
@@ -2783,7 +2783,7 @@
         <v>15</v>
       </c>
       <c r="D147" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148">
@@ -2799,7 +2799,7 @@
         <v>16</v>
       </c>
       <c r="D148" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149">
@@ -2815,7 +2815,7 @@
         <v>17</v>
       </c>
       <c r="D149" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="150">
@@ -2831,7 +2831,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151">
@@ -2847,7 +2847,7 @@
         <v>19</v>
       </c>
       <c r="D151" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152">
@@ -2863,7 +2863,7 @@
         <v>20</v>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153">
@@ -2879,7 +2879,7 @@
         <v>21</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
@@ -2895,7 +2895,7 @@
         <v>22</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">

--- a/service/dayforecastonactivity.xlsx
+++ b/service/dayforecastonactivity.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>21/03/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>302.9</v>
+        <v>287.3</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>404.3</v>
+        <v>314.6</v>
       </c>
     </row>
     <row r="5">
@@ -511,7 +511,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>422.5</v>
+        <v>334.1</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>371.8</v>
+        <v>393.9</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>262.6</v>
+        <v>265.2</v>
       </c>
     </row>
     <row r="8">
@@ -559,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>318.5</v>
+        <v>252.2</v>
       </c>
     </row>
     <row r="9">
@@ -575,7 +575,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>289.9</v>
+        <v>380.9</v>
       </c>
     </row>
     <row r="10">
@@ -591,7 +591,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>338</v>
+        <v>310.7</v>
       </c>
     </row>
     <row r="11">
@@ -607,7 +607,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>315.9</v>
+        <v>257.4</v>
       </c>
     </row>
     <row r="12">
@@ -623,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>343.2</v>
+        <v>291.2</v>
       </c>
     </row>
     <row r="13">
@@ -639,7 +639,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>256.1</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14">
@@ -655,7 +655,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>166.4</v>
+        <v>148.2</v>
       </c>
     </row>
     <row r="15">
@@ -719,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -735,7 +735,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -751,7 +751,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
@@ -767,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -783,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -799,7 +799,7 @@
         <v>13</v>
       </c>
       <c r="D23" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -815,7 +815,7 @@
         <v>14</v>
       </c>
       <c r="D24" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -831,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -847,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="D26" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -863,7 +863,7 @@
         <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -879,7 +879,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -895,7 +895,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -911,7 +911,7 @@
         <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
@@ -1007,7 +1007,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37">
@@ -1023,7 +1023,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>180</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38">
@@ -1039,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>235</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39">
@@ -1055,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>229</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40">
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>193</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41">
@@ -1087,7 +1087,7 @@
         <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42">
@@ -1103,7 +1103,7 @@
         <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43">
@@ -1119,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44">
@@ -1135,7 +1135,7 @@
         <v>16</v>
       </c>
       <c r="D44" t="n">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45">
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46">
@@ -1167,7 +1167,7 @@
         <v>18</v>
       </c>
       <c r="D46" t="n">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47">
@@ -1183,7 +1183,7 @@
         <v>19</v>
       </c>
       <c r="D47" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -1199,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
@@ -1215,7 +1215,7 @@
         <v>21</v>
       </c>
       <c r="D49" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
@@ -1231,7 +1231,7 @@
         <v>22</v>
       </c>
       <c r="D50" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
@@ -1247,7 +1247,7 @@
         <v>23</v>
       </c>
       <c r="D51" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -1263,7 +1263,7 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
@@ -1279,7 +1279,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54">
@@ -1295,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55">
@@ -1311,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56">
@@ -1327,7 +1327,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57">
@@ -1343,7 +1343,7 @@
         <v>13</v>
       </c>
       <c r="D57" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58">
@@ -1359,7 +1359,7 @@
         <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59">
@@ -1375,7 +1375,7 @@
         <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60">
@@ -1391,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="D60" t="n">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61">
@@ -1407,7 +1407,7 @@
         <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62">
@@ -1423,7 +1423,7 @@
         <v>18</v>
       </c>
       <c r="D62" t="n">
-        <v>123</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
@@ -1439,7 +1439,7 @@
         <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64">
@@ -1519,7 +1519,7 @@
         <v>8</v>
       </c>
       <c r="D68" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
@@ -1535,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
@@ -1551,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="D70" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
@@ -1567,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
@@ -1583,7 +1583,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
@@ -1599,7 +1599,7 @@
         <v>13</v>
       </c>
       <c r="D73" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74">
@@ -1615,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="D74" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75">
@@ -1631,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="D75" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76">
@@ -1647,7 +1647,7 @@
         <v>16</v>
       </c>
       <c r="D76" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77">
@@ -1663,7 +1663,7 @@
         <v>17</v>
       </c>
       <c r="D77" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78">
@@ -1679,7 +1679,7 @@
         <v>18</v>
       </c>
       <c r="D78" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79">
@@ -1695,7 +1695,7 @@
         <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -1711,7 +1711,7 @@
         <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -1727,7 +1727,7 @@
         <v>21</v>
       </c>
       <c r="D81" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -1743,7 +1743,7 @@
         <v>22</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -1759,7 +1759,7 @@
         <v>23</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -1807,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -1823,7 +1823,7 @@
         <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -1839,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -1855,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -1887,7 +1887,7 @@
         <v>7</v>
       </c>
       <c r="D91" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92">
@@ -1903,7 +1903,7 @@
         <v>8</v>
       </c>
       <c r="D92" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93">
@@ -1919,7 +1919,7 @@
         <v>9</v>
       </c>
       <c r="D93" t="n">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94">
@@ -1935,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="D94" t="n">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95">
@@ -1951,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="D95" t="n">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
@@ -1967,7 +1967,7 @@
         <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>174</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
@@ -1983,7 +1983,7 @@
         <v>13</v>
       </c>
       <c r="D97" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98">
@@ -1999,7 +1999,7 @@
         <v>14</v>
       </c>
       <c r="D98" t="n">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99">
@@ -2015,7 +2015,7 @@
         <v>15</v>
       </c>
       <c r="D99" t="n">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="D100" t="n">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101">
@@ -2047,7 +2047,7 @@
         <v>17</v>
       </c>
       <c r="D101" t="n">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
@@ -2063,7 +2063,7 @@
         <v>18</v>
       </c>
       <c r="D102" t="n">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
@@ -2079,7 +2079,7 @@
         <v>19</v>
       </c>
       <c r="D103" t="n">
-        <v>150</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104">
@@ -2095,7 +2095,7 @@
         <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105">
@@ -2111,7 +2111,7 @@
         <v>21</v>
       </c>
       <c r="D105" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106">
@@ -2127,7 +2127,7 @@
         <v>22</v>
       </c>
       <c r="D106" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -2143,7 +2143,7 @@
         <v>23</v>
       </c>
       <c r="D107" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
@@ -2175,7 +2175,7 @@
         <v>9</v>
       </c>
       <c r="D109" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110">
@@ -2191,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="D110" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111">
@@ -2207,7 +2207,7 @@
         <v>11</v>
       </c>
       <c r="D111" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
@@ -2223,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="D112" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
@@ -2239,7 +2239,7 @@
         <v>13</v>
       </c>
       <c r="D113" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
@@ -2255,7 +2255,7 @@
         <v>14</v>
       </c>
       <c r="D114" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115">
@@ -2271,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="D115" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
@@ -2287,7 +2287,7 @@
         <v>16</v>
       </c>
       <c r="D116" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
@@ -2303,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="D117" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118">
@@ -2319,7 +2319,7 @@
         <v>18</v>
       </c>
       <c r="D118" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119">
@@ -2335,7 +2335,7 @@
         <v>19</v>
       </c>
       <c r="D119" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120">
@@ -2351,7 +2351,7 @@
         <v>20</v>
       </c>
       <c r="D120" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
@@ -2447,7 +2447,7 @@
         <v>10</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2495,7 +2495,7 @@
         <v>13</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -2527,7 +2527,7 @@
         <v>15</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2559,7 +2559,7 @@
         <v>17</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -2575,7 +2575,7 @@
         <v>18</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2591,7 +2591,7 @@
         <v>19</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2671,7 +2671,7 @@
         <v>8</v>
       </c>
       <c r="D140" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141">
@@ -2687,7 +2687,7 @@
         <v>9</v>
       </c>
       <c r="D141" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142">
@@ -2703,7 +2703,7 @@
         <v>10</v>
       </c>
       <c r="D142" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
@@ -2719,7 +2719,7 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144">
@@ -2735,7 +2735,7 @@
         <v>12</v>
       </c>
       <c r="D144" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145">
@@ -2767,7 +2767,7 @@
         <v>14</v>
       </c>
       <c r="D146" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147">
@@ -2783,7 +2783,7 @@
         <v>15</v>
       </c>
       <c r="D147" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148">
@@ -2799,7 +2799,7 @@
         <v>16</v>
       </c>
       <c r="D148" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149">
@@ -2815,7 +2815,7 @@
         <v>17</v>
       </c>
       <c r="D149" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150">
@@ -2831,7 +2831,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151">
@@ -2847,7 +2847,7 @@
         <v>19</v>
       </c>
       <c r="D151" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152">
@@ -2863,7 +2863,7 @@
         <v>20</v>
       </c>
       <c r="D152" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153">
@@ -2879,7 +2879,7 @@
         <v>21</v>
       </c>
       <c r="D153" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154">
@@ -2895,7 +2895,7 @@
         <v>22</v>
       </c>
       <c r="D154" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155">

--- a/service/dayforecastonactivity.xlsx
+++ b/service/dayforecastonactivity.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>24/03/2023</t>
+          <t>25/03/2023</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>287.3</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>314.6</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
@@ -511,7 +511,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>334.1</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>393.9</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>265.2</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8">
@@ -559,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>252.2</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9">
@@ -575,7 +575,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>380.9</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10">
@@ -591,7 +591,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11">
@@ -607,7 +607,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>257.4</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12">
@@ -623,7 +623,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>291.2</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13">
@@ -639,7 +639,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>234</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -655,7 +655,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>148.2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -719,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -735,7 +735,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -751,7 +751,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -767,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -783,7 +783,7 @@
         <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -799,7 +799,7 @@
         <v>13</v>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -815,7 +815,7 @@
         <v>14</v>
       </c>
       <c r="D24" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -831,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -847,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -863,7 +863,7 @@
         <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -879,7 +879,7 @@
         <v>18</v>
       </c>
       <c r="D28" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -895,7 +895,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -911,7 +911,7 @@
         <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -975,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -1007,7 +1007,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>148</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
@@ -1023,7 +1023,7 @@
         <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>221</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38">
@@ -1039,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>189</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39">
@@ -1055,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>180</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40">
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>153</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41">
@@ -1087,7 +1087,7 @@
         <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>137</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42">
@@ -1103,7 +1103,7 @@
         <v>14</v>
       </c>
       <c r="D42" t="n">
-        <v>140</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43">
@@ -1119,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44">
@@ -1135,7 +1135,7 @@
         <v>16</v>
       </c>
       <c r="D44" t="n">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45">
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="D45" t="n">
-        <v>146</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
@@ -1167,7 +1167,7 @@
         <v>18</v>
       </c>
       <c r="D46" t="n">
-        <v>157</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47">
@@ -1183,7 +1183,7 @@
         <v>19</v>
       </c>
       <c r="D47" t="n">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
@@ -1199,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49">
@@ -1215,7 +1215,7 @@
         <v>21</v>
       </c>
       <c r="D49" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
@@ -1231,7 +1231,7 @@
         <v>22</v>
       </c>
       <c r="D50" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -1247,7 +1247,7 @@
         <v>23</v>
       </c>
       <c r="D51" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
@@ -1263,7 +1263,7 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
@@ -1279,7 +1279,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
@@ -1295,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>149</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55">
@@ -1311,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>150</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56">
@@ -1327,7 +1327,7 @@
         <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>141</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57">
@@ -1343,7 +1343,7 @@
         <v>13</v>
       </c>
       <c r="D57" t="n">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58">
@@ -1359,7 +1359,7 @@
         <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59">
@@ -1375,7 +1375,7 @@
         <v>15</v>
       </c>
       <c r="D59" t="n">
-        <v>121</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60">
@@ -1391,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="D60" t="n">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61">
@@ -1407,7 +1407,7 @@
         <v>17</v>
       </c>
       <c r="D61" t="n">
-        <v>126</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
@@ -1423,7 +1423,7 @@
         <v>18</v>
       </c>
       <c r="D62" t="n">
-        <v>95</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63">
@@ -1439,7 +1439,7 @@
         <v>19</v>
       </c>
       <c r="D63" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64">
@@ -1519,7 +1519,7 @@
         <v>8</v>
       </c>
       <c r="D68" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
@@ -1535,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="D69" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
@@ -1551,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="D70" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
@@ -1567,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
@@ -1583,7 +1583,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
@@ -1599,7 +1599,7 @@
         <v>13</v>
       </c>
       <c r="D73" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
@@ -1615,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="D74" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
@@ -1631,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="D75" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
@@ -1647,7 +1647,7 @@
         <v>16</v>
       </c>
       <c r="D76" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
@@ -1663,7 +1663,7 @@
         <v>17</v>
       </c>
       <c r="D77" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -1679,7 +1679,7 @@
         <v>18</v>
       </c>
       <c r="D78" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -1695,7 +1695,7 @@
         <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -1711,7 +1711,7 @@
         <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -1727,7 +1727,7 @@
         <v>21</v>
       </c>
       <c r="D81" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -1759,7 +1759,7 @@
         <v>23</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
@@ -1807,7 +1807,7 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1839,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1855,7 +1855,7 @@
         <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -1887,7 +1887,7 @@
         <v>7</v>
       </c>
       <c r="D91" t="n">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92">
@@ -1903,7 +1903,7 @@
         <v>8</v>
       </c>
       <c r="D92" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93">
@@ -1919,7 +1919,7 @@
         <v>9</v>
       </c>
       <c r="D93" t="n">
-        <v>165</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94">
@@ -1935,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="D94" t="n">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95">
@@ -1951,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="D95" t="n">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96">
@@ -1967,7 +1967,7 @@
         <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97">
@@ -1983,7 +1983,7 @@
         <v>13</v>
       </c>
       <c r="D97" t="n">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98">
@@ -1999,7 +1999,7 @@
         <v>14</v>
       </c>
       <c r="D98" t="n">
-        <v>160</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99">
@@ -2015,7 +2015,7 @@
         <v>15</v>
       </c>
       <c r="D99" t="n">
-        <v>135</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="D100" t="n">
-        <v>135</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101">
@@ -2047,7 +2047,7 @@
         <v>17</v>
       </c>
       <c r="D101" t="n">
-        <v>148</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102">
@@ -2063,7 +2063,7 @@
         <v>18</v>
       </c>
       <c r="D102" t="n">
-        <v>156</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103">
@@ -2079,7 +2079,7 @@
         <v>19</v>
       </c>
       <c r="D103" t="n">
-        <v>109</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104">
@@ -2095,7 +2095,7 @@
         <v>20</v>
       </c>
       <c r="D104" t="n">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105">
@@ -2111,7 +2111,7 @@
         <v>21</v>
       </c>
       <c r="D105" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
@@ -2127,7 +2127,7 @@
         <v>22</v>
       </c>
       <c r="D106" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107">
@@ -2143,7 +2143,7 @@
         <v>23</v>
       </c>
       <c r="D107" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -2175,7 +2175,7 @@
         <v>9</v>
       </c>
       <c r="D109" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110">
@@ -2191,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="D110" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111">
@@ -2207,7 +2207,7 @@
         <v>11</v>
       </c>
       <c r="D111" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
@@ -2223,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="D112" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
@@ -2239,7 +2239,7 @@
         <v>13</v>
       </c>
       <c r="D113" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114">
@@ -2255,7 +2255,7 @@
         <v>14</v>
       </c>
       <c r="D114" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
@@ -2271,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="D115" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -2287,7 +2287,7 @@
         <v>16</v>
       </c>
       <c r="D116" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
@@ -2303,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="D117" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
@@ -2319,7 +2319,7 @@
         <v>18</v>
       </c>
       <c r="D118" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119">
@@ -2335,7 +2335,7 @@
         <v>19</v>
       </c>
       <c r="D119" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
@@ -2351,7 +2351,7 @@
         <v>20</v>
       </c>
       <c r="D120" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -2431,7 +2431,7 @@
         <v>9</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2447,7 +2447,7 @@
         <v>10</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -2463,7 +2463,7 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -2479,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2495,7 +2495,7 @@
         <v>13</v>
       </c>
       <c r="D129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2559,7 +2559,7 @@
         <v>17</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -2671,7 +2671,7 @@
         <v>8</v>
       </c>
       <c r="D140" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141">
@@ -2687,7 +2687,7 @@
         <v>9</v>
       </c>
       <c r="D141" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142">
@@ -2703,7 +2703,7 @@
         <v>10</v>
       </c>
       <c r="D142" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143">
@@ -2719,7 +2719,7 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144">
@@ -2735,7 +2735,7 @@
         <v>12</v>
       </c>
       <c r="D144" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145">
@@ -2751,7 +2751,7 @@
         <v>13</v>
       </c>
       <c r="D145" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146">
@@ -2767,7 +2767,7 @@
         <v>14</v>
       </c>
       <c r="D146" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
@@ -2783,7 +2783,7 @@
         <v>15</v>
       </c>
       <c r="D147" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148">
@@ -2799,7 +2799,7 @@
         <v>16</v>
       </c>
       <c r="D148" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149">
@@ -2815,7 +2815,7 @@
         <v>17</v>
       </c>
       <c r="D149" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150">
@@ -2831,7 +2831,7 @@
         <v>18</v>
       </c>
       <c r="D150" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151">
@@ -2847,7 +2847,7 @@
         <v>19</v>
       </c>
       <c r="D151" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152">
@@ -2863,7 +2863,7 @@
         <v>20</v>
       </c>
       <c r="D152" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -2879,7 +2879,7 @@
         <v>21</v>
       </c>
       <c r="D153" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -2895,7 +2895,7 @@
         <v>22</v>
       </c>
       <c r="D154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">

--- a/service/dayforecastonactivity.xlsx
+++ b/service/dayforecastonactivity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>25/03/2023</t>
+          <t>07/04/2023</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>258</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>270</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>312</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>230</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>204</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>192</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>198</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>186</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>110</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>62</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -908,10 +908,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -991,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
@@ -1000,14 +1000,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>167</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -1032,14 +1032,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D38" t="n">
-        <v>138</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39">
@@ -1048,14 +1048,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D39" t="n">
-        <v>125</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D40" t="n">
-        <v>116</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41">
@@ -1080,14 +1080,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D41" t="n">
-        <v>99</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42">
@@ -1096,14 +1096,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43">
@@ -1112,14 +1112,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D43" t="n">
-        <v>127</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44">
@@ -1128,14 +1128,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D44" t="n">
-        <v>105</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
@@ -1144,14 +1144,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D45" t="n">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46">
@@ -1160,14 +1160,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D46" t="n">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
@@ -1176,14 +1176,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D47" t="n">
-        <v>82</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -1192,14 +1192,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D48" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1208,14 +1208,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MIG</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D49" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D50" t="n">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51">
@@ -1244,10 +1244,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
-        <v>22</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>55</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53">
@@ -1272,14 +1272,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" t="n">
-        <v>80</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54">
@@ -1288,14 +1288,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D54" t="n">
-        <v>87</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55">
@@ -1304,14 +1304,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D55" t="n">
-        <v>96</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -1320,14 +1320,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D56" t="n">
-        <v>98</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57">
@@ -1336,14 +1336,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D57" t="n">
-        <v>73</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -1352,14 +1352,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D58" t="n">
-        <v>75</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59">
@@ -1368,14 +1368,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D59" t="n">
-        <v>59</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -1384,14 +1384,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D60" t="n">
-        <v>65</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61">
@@ -1400,14 +1400,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D61" t="n">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62">
@@ -1416,14 +1416,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D62" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63">
@@ -1432,14 +1432,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D63" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64">
@@ -1448,14 +1448,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MOB PRE</t>
+          <t>MOB</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67">
@@ -1500,10 +1500,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68">
@@ -1512,14 +1512,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69">
@@ -1528,14 +1528,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" t="n">
-        <v>25</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70">
@@ -1544,14 +1544,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D70" t="n">
-        <v>26</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71">
@@ -1560,14 +1560,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D71" t="n">
-        <v>30</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72">
@@ -1576,14 +1576,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D72" t="n">
-        <v>29</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73">
@@ -1592,14 +1592,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D73" t="n">
-        <v>26</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74">
@@ -1608,14 +1608,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D74" t="n">
-        <v>22</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75">
@@ -1624,14 +1624,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D75" t="n">
-        <v>22</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76">
@@ -1640,14 +1640,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D76" t="n">
-        <v>24</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77">
@@ -1656,14 +1656,14 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D77" t="n">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78">
@@ -1672,14 +1672,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D78" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1688,14 +1688,14 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D79" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1704,14 +1704,14 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D80" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1720,14 +1720,14 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MSK</t>
+          <t>MOB PRE</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84">
@@ -1768,14 +1768,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D84" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85">
@@ -1784,14 +1784,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D85" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86">
@@ -1800,14 +1800,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87">
@@ -1816,14 +1816,14 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
@@ -1832,14 +1832,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89">
@@ -1848,14 +1848,14 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90">
@@ -1864,14 +1864,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D90" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91">
@@ -1880,14 +1880,14 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>MSK</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D91" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92">
@@ -1896,14 +1896,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MSK</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D92" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
@@ -1912,14 +1912,14 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MSK</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D93" t="n">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MSK</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D94" t="n">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
@@ -1944,14 +1944,14 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MSK</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D95" t="n">
-        <v>136</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -1960,14 +1960,14 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MSK</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D96" t="n">
-        <v>136</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
@@ -1976,14 +1976,14 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TEC</t>
+          <t>MSK</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D97" t="n">
-        <v>109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -1996,10 +1996,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D98" t="n">
-        <v>115</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99">
@@ -2012,10 +2012,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D99" t="n">
-        <v>103</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100">
@@ -2028,10 +2028,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D100" t="n">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101">
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D101" t="n">
-        <v>94</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D102" t="n">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103">
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D103" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D104" t="n">
-        <v>38</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105">
@@ -2108,10 +2108,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D105" t="n">
-        <v>29</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106">
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D106" t="n">
-        <v>15</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107">
@@ -2140,10 +2140,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D107" t="n">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108">
@@ -2152,14 +2152,14 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>TEC</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109">
@@ -2168,14 +2168,14 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>TEC</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D109" t="n">
-        <v>9</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110">
@@ -2184,14 +2184,14 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>TEC</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D110" t="n">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111">
@@ -2200,14 +2200,14 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>TEC</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D111" t="n">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112">
@@ -2216,14 +2216,14 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>TEC</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D112" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113">
@@ -2232,14 +2232,14 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>TEC</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D113" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="114">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D114" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D115" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117">
@@ -2300,10 +2300,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D117" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
@@ -2316,10 +2316,10 @@
         </is>
       </c>
       <c r="C118" t="n">
+        <v>13</v>
+      </c>
+      <c r="D118" t="n">
         <v>18</v>
-      </c>
-      <c r="D118" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="119">
@@ -2332,10 +2332,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D119" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120">
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121">
@@ -2364,10 +2364,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122">
@@ -2380,10 +2380,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
@@ -2408,14 +2408,14 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>TST</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
@@ -2424,14 +2424,14 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>TST</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
@@ -2440,14 +2440,14 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>TST</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
@@ -2456,14 +2456,14 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>TST</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2472,11 +2472,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>TST</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -2488,11 +2488,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>VIP</t>
+          <t>TST</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -2540,10 +2540,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -2556,10 +2556,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -2664,14 +2664,14 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -2680,14 +2680,14 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D141" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -2696,14 +2696,14 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D142" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -2712,14 +2712,14 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D143" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -2728,14 +2728,14 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D144" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -2744,14 +2744,14 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>WLC</t>
+          <t>VIP</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D145" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -2764,10 +2764,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D146" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
@@ -2780,10 +2780,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D147" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148">
@@ -2796,10 +2796,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D148" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149">
@@ -2812,10 +2812,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D149" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150">
@@ -2828,10 +2828,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D150" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151">
@@ -2844,10 +2844,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D151" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152">
@@ -2860,10 +2860,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
@@ -2892,10 +2892,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155">
@@ -2908,9 +2908,105 @@
         </is>
       </c>
       <c r="C155" t="n">
+        <v>18</v>
+      </c>
+      <c r="D155" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>19</v>
+      </c>
+      <c r="D156" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>20</v>
+      </c>
+      <c r="D157" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>21</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>22</v>
+      </c>
+      <c r="D159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
         <v>23</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>WLC</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>24</v>
+      </c>
+      <c r="D161" t="n">
         <v>1</v>
       </c>
     </row>
